--- a/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
+++ b/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2442E3F7-9BAD-9345-A086-0DD5F482F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB1D20-280A-C243-94BC-F21A6CB6FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="760" windowWidth="13980" windowHeight="18880" activeTab="4" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
+    <workbookView xWindow="16260" yWindow="760" windowWidth="13980" windowHeight="18880" firstSheet="3" activeTab="8" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -21480,9 +21480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7BEF31-A977-9C4C-B5E8-9BA5B0A6F49B}">
   <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="topRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35902,8 +35902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C0706F-232B-2C4F-9015-CC1BDFB11B4D}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
+++ b/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB1D20-280A-C243-94BC-F21A6CB6FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B4F6D-4F01-2C43-8944-F478529ACDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="760" windowWidth="13980" windowHeight="18880" firstSheet="3" activeTab="8" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15200" windowHeight="18880" firstSheet="3" activeTab="4" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -3253,7 +3253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3269,7 +3269,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3937,7 +3936,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>45456</v>
       </c>
       <c r="B18" t="s">
@@ -3945,7 +3944,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>45457</v>
       </c>
       <c r="B19" t="s">
@@ -13963,7 +13962,7 @@
       <c r="AQ13" t="s">
         <v>1008</v>
       </c>
-      <c r="AS13" s="16"/>
+      <c r="AS13" s="15"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -15002,7 +15001,7 @@
       <c r="T22" s="2">
         <v>15</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" t="s">
         <v>863</v>
       </c>
       <c r="V22" s="11">
@@ -16316,7 +16315,7 @@
       <c r="Q34" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="R34" t="s">
         <v>1011</v>
       </c>
       <c r="S34" s="6">
@@ -20668,7 +20667,7 @@
       <c r="Q71" t="s">
         <v>602</v>
       </c>
-      <c r="R71" s="15" t="s">
+      <c r="R71" t="s">
         <v>1018</v>
       </c>
       <c r="S71" s="6">
@@ -21480,9 +21479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7BEF31-A977-9C4C-B5E8-9BA5B0A6F49B}">
   <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21494,6 +21493,7 @@
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="19" max="19" width="12.33203125" customWidth="1"/>
     <col min="20" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" customWidth="1"/>
     <col min="41" max="41" width="18.5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.5" customWidth="1"/>
   </cols>
@@ -22256,7 +22256,7 @@
       <c r="AP6" t="s">
         <v>1008</v>
       </c>
-      <c r="AR6" s="16"/>
+      <c r="AR6" s="15"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -23170,7 +23170,7 @@
       <c r="T14" s="2">
         <v>15</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" t="s">
         <v>863</v>
       </c>
       <c r="V14" s="11">
@@ -23729,7 +23729,7 @@
       <c r="AA19" s="11">
         <v>12</v>
       </c>
-      <c r="AB19" s="15">
+      <c r="AB19">
         <v>1</v>
       </c>
       <c r="AC19" t="s">
@@ -24306,7 +24306,7 @@
       <c r="Q24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" t="s">
         <v>1011</v>
       </c>
       <c r="S24" s="6">
@@ -24336,7 +24336,7 @@
       <c r="AA24" s="11">
         <v>8</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB24">
         <v>1</v>
       </c>
       <c r="AC24" t="s">
@@ -26098,7 +26098,7 @@
       <c r="AJ38" t="s">
         <v>858</v>
       </c>
-      <c r="AK38" s="15" t="s">
+      <c r="AK38" t="s">
         <v>859</v>
       </c>
       <c r="AL38" t="s">
@@ -27490,7 +27490,7 @@
       <c r="Q50" t="s">
         <v>602</v>
       </c>
-      <c r="R50" s="15" t="s">
+      <c r="R50" t="s">
         <v>1018</v>
       </c>
       <c r="S50" s="6">
@@ -28151,7 +28151,7 @@
       <c r="AA55" s="2">
         <v>12</v>
       </c>
-      <c r="AB55" s="15">
+      <c r="AB55">
         <v>0</v>
       </c>
       <c r="AC55" t="s">
@@ -28221,16 +28221,16 @@
       <c r="G56" s="5"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM58" s="18"/>
+      <c r="AM58" s="17"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM59" s="18"/>
+      <c r="AM59" s="17"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM60" s="18"/>
+      <c r="AM60" s="17"/>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM61" s="18"/>
+      <c r="AM61" s="17"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -28239,7 +28239,7 @@
       <c r="B62" t="s">
         <v>703</v>
       </c>
-      <c r="AM62" s="18"/>
+      <c r="AM62" s="17"/>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
@@ -28248,7 +28248,7 @@
       <c r="B63" t="s">
         <v>698</v>
       </c>
-      <c r="AM63" s="18"/>
+      <c r="AM63" s="17"/>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
@@ -28257,7 +28257,7 @@
       <c r="B64" t="s">
         <v>699</v>
       </c>
-      <c r="AM64" s="18"/>
+      <c r="AM64" s="17"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -35902,7 +35902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C0706F-232B-2C4F-9015-CC1BDFB11B4D}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
+++ b/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B4F6D-4F01-2C43-8944-F478529ACDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390FFBD2-4D08-BF4C-A293-1C52B02D2D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15200" windowHeight="18880" firstSheet="3" activeTab="4" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
+    <workbookView xWindow="200" yWindow="760" windowWidth="15200" windowHeight="18880" firstSheet="3" activeTab="4" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7251" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7248" uniqueCount="1025">
   <si>
     <t>Name</t>
   </si>
@@ -3125,7 +3125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3179,6 +3179,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3253,7 +3259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3272,6 +3278,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21479,9 +21487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7BEF31-A977-9C4C-B5E8-9BA5B0A6F49B}">
   <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24190,23 +24198,23 @@
       <c r="U23" s="3">
         <v>12</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="18">
         <v>12</v>
       </c>
       <c r="W23" s="3">
         <v>13</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="18">
         <v>12</v>
       </c>
-      <c r="Y23" s="3">
-        <v>22</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Y23" s="18">
+        <v>19</v>
+      </c>
+      <c r="Z23" s="18">
         <v>21</v>
       </c>
-      <c r="AA23" s="3">
-        <v>24</v>
+      <c r="AA23" s="18">
+        <v>19</v>
       </c>
       <c r="AB23" t="s">
         <v>903</v>
@@ -24446,22 +24454,22 @@
       <c r="U25" s="3">
         <v>12</v>
       </c>
-      <c r="V25" t="s">
-        <v>863</v>
+      <c r="V25" s="18">
+        <v>11</v>
       </c>
       <c r="W25" s="3">
         <v>13</v>
       </c>
-      <c r="X25" t="s">
-        <v>863</v>
-      </c>
-      <c r="Y25" s="3">
+      <c r="X25" s="18">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="18">
         <v>12</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="18">
         <v>11</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25" s="18">
         <v>10</v>
       </c>
       <c r="AB25" t="s">
@@ -24480,13 +24488,13 @@
         <v>871</v>
       </c>
       <c r="AG25" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="AH25" t="s">
         <v>871</v>
       </c>
       <c r="AI25" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="AJ25" t="s">
         <v>871</v>
@@ -25178,22 +25186,22 @@
       <c r="U31" s="2">
         <v>10</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="11">
         <v>12</v>
       </c>
       <c r="W31" s="2">
         <v>13</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="11">
         <v>9</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="11">
         <v>12</v>
       </c>
-      <c r="Z31" s="6">
-        <v>9</v>
-      </c>
-      <c r="AA31" s="6">
+      <c r="Z31" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA31" s="11">
         <v>12</v>
       </c>
       <c r="AB31">
@@ -25303,22 +25311,22 @@
       <c r="U32" s="3">
         <v>9</v>
       </c>
-      <c r="V32" t="s">
-        <v>863</v>
+      <c r="V32" s="18">
+        <v>11</v>
       </c>
       <c r="W32" s="3">
         <v>6</v>
       </c>
-      <c r="X32" s="3">
-        <v>12</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="X32" s="18">
         <v>11</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Y32" s="18">
         <v>11</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="Z32" s="18">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="18">
         <v>12</v>
       </c>
       <c r="AB32" t="s">
@@ -25334,7 +25342,7 @@
         <v>871</v>
       </c>
       <c r="AG32" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="AH32" t="s">
         <v>871</v>
@@ -27038,22 +27046,22 @@
       <c r="U46" s="2">
         <v>10</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="12">
         <v>10</v>
       </c>
       <c r="W46" s="2">
         <v>10</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="19">
+        <v>14</v>
+      </c>
+      <c r="Y46" s="12">
         <v>10</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Z46" s="12">
         <v>10</v>
       </c>
-      <c r="Z46" s="2">
-        <v>10</v>
-      </c>
-      <c r="AA46" s="2">
+      <c r="AA46" s="12">
         <v>10</v>
       </c>
       <c r="AB46">
@@ -27078,7 +27086,7 @@
         <v>859</v>
       </c>
       <c r="AI46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ46" t="s">
         <v>859</v>

--- a/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
+++ b/PhasomeIt_data/phasomeit_out_RNAcheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390FFBD2-4D08-BF4C-A293-1C52B02D2D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF382DCA-EB62-D34D-916B-3C1FCAF46220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="760" windowWidth="15200" windowHeight="18880" firstSheet="3" activeTab="4" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
+    <workbookView xWindow="200" yWindow="2800" windowWidth="15200" windowHeight="18880" firstSheet="3" activeTab="4" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -21487,9 +21487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7BEF31-A977-9C4C-B5E8-9BA5B0A6F49B}">
   <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC34" sqref="AC34"/>
+      <selection pane="topRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
